--- a/implenetation_testing.xlsx
+++ b/implenetation_testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arora/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6D8E0A3-10AA-B74B-B43C-121E0B9020D3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68479EC3-769C-7D4D-8661-D3F0D97B215B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16460" xr2:uid="{0A25CEAA-B5DB-3140-B65E-A4C9D5EE7243}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="105">
   <si>
     <t>Task No</t>
   </si>
@@ -250,6 +250,96 @@
   </si>
   <si>
     <t>All above completed</t>
+  </si>
+  <si>
+    <t>No failed jobs</t>
+  </si>
+  <si>
+    <t>200–250, 260–380</t>
+  </si>
+  <si>
+    <t>MQS events landing</t>
+  </si>
+  <si>
+    <t>270–300</t>
+  </si>
+  <si>
+    <t>Validate Silver &amp; Gold table population</t>
+  </si>
+  <si>
+    <t>Data flowing as expected</t>
+  </si>
+  <si>
+    <t>310–380, 390–410</t>
+  </si>
+  <si>
+    <t>Job completed successfully</t>
+  </si>
+  <si>
+    <t>200, 210</t>
+  </si>
+  <si>
+    <t>Validate reconciliation results against source</t>
+  </si>
+  <si>
+    <t>No abnormal variance</t>
+  </si>
+  <si>
+    <t>Scheduled job triggered</t>
+  </si>
+  <si>
+    <t>Validate Quote Cache deletion effect</t>
+  </si>
+  <si>
+    <t>Spot check quotes</t>
+  </si>
+  <si>
+    <t>Validate CoS ODS, Analyst &amp; Pricing views</t>
+  </si>
+  <si>
+    <t>Views accessible</t>
+  </si>
+  <si>
+    <t>235, 240, 250</t>
+  </si>
+  <si>
+    <t>Validate Vehicle &amp; Area LRT service data</t>
+  </si>
+  <si>
+    <t>LRT data available</t>
+  </si>
+  <si>
+    <t>420–480</t>
+  </si>
+  <si>
+    <t>Verify PV group permissions in PROD Databricks</t>
+  </si>
+  <si>
+    <t>Access confirmed</t>
+  </si>
+  <si>
+    <t>460, 490–510</t>
+  </si>
+  <si>
+    <t>Monitor PROD logs and pipelines for errors</t>
+  </si>
+  <si>
+    <t>No critical alerts</t>
+  </si>
+  <si>
+    <t>200–510</t>
+  </si>
+  <si>
+    <t>Business smoke testing on key tables/views</t>
+  </si>
+  <si>
+    <t>High-level validation</t>
+  </si>
+  <si>
+    <t>Confirm monitoring and alerts status</t>
+  </si>
+  <si>
+    <t>Stable system</t>
   </si>
 </sst>
 </file>
@@ -610,15 +700,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F97DE8B0-2800-E049-9AAD-4D70FE01EA40}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J1" sqref="J1:P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -640,8 +730,29 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -663,8 +774,29 @@
       <c r="G2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -686,8 +818,29 @@
       <c r="G3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -709,8 +862,29 @@
       <c r="G4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -732,8 +906,29 @@
       <c r="G5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" t="s">
+        <v>82</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -755,8 +950,29 @@
       <c r="G6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>15</v>
+      </c>
+      <c r="L6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -778,8 +994,29 @@
       <c r="G7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <v>15</v>
+      </c>
+      <c r="L7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -801,8 +1038,29 @@
       <c r="G8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" t="s">
+        <v>87</v>
+      </c>
+      <c r="O8" t="s">
+        <v>88</v>
+      </c>
+      <c r="P8" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -824,8 +1082,29 @@
       <c r="G9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <v>20</v>
+      </c>
+      <c r="L9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" t="s">
+        <v>90</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -847,8 +1126,29 @@
       <c r="G10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <v>15</v>
+      </c>
+      <c r="L10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" t="s">
+        <v>92</v>
+      </c>
+      <c r="O10" t="s">
+        <v>93</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -870,8 +1170,29 @@
       <c r="G11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" t="s">
+        <v>95</v>
+      </c>
+      <c r="O11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -893,8 +1214,29 @@
       <c r="G12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <v>11</v>
+      </c>
+      <c r="K12">
+        <v>15</v>
+      </c>
+      <c r="L12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" t="s">
+        <v>98</v>
+      </c>
+      <c r="O12" t="s">
+        <v>99</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -916,8 +1258,29 @@
       <c r="G13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <v>12</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+      <c r="L13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" t="s">
+        <v>101</v>
+      </c>
+      <c r="O13" t="s">
+        <v>102</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -938,6 +1301,27 @@
       </c>
       <c r="G14" t="s">
         <v>46</v>
+      </c>
+      <c r="J14">
+        <v>13</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14" t="s">
+        <v>103</v>
+      </c>
+      <c r="O14" t="s">
+        <v>104</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1168,6 +1552,328 @@
       </c>
       <c r="G26" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>20</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>20</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" t="s">
+        <v>82</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" t="s">
+        <v>85</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" t="s">
+        <v>88</v>
+      </c>
+      <c r="G36" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>8</v>
+      </c>
+      <c r="B37">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" t="s">
+        <v>90</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>9</v>
+      </c>
+      <c r="B38">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>10</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>95</v>
+      </c>
+      <c r="F39" t="s">
+        <v>96</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>11</v>
+      </c>
+      <c r="B40">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" t="s">
+        <v>99</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>12</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>101</v>
+      </c>
+      <c r="F41" t="s">
+        <v>102</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>13</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>103</v>
+      </c>
+      <c r="F42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/implenetation_testing.xlsx
+++ b/implenetation_testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arora/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68479EC3-769C-7D4D-8661-D3F0D97B215B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90557229-55D5-9943-AAD4-1DB60AD3A0EF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16460" xr2:uid="{0A25CEAA-B5DB-3140-B65E-A4C9D5EE7243}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="131">
   <si>
     <t>Task No</t>
   </si>
@@ -340,6 +340,84 @@
   </si>
   <si>
     <t>Stable system</t>
+  </si>
+  <si>
+    <t>Verify Data Reconciliation Databricks job is running successfully</t>
+  </si>
+  <si>
+    <t>Job triggered without errors</t>
+  </si>
+  <si>
+    <t>Validate Data Reconciliation output tables are populated</t>
+  </si>
+  <si>
+    <t>Record counts available</t>
+  </si>
+  <si>
+    <t>Scheduled job started</t>
+  </si>
+  <si>
+    <t>Validate Quote Cache deletion for sample quotes</t>
+  </si>
+  <si>
+    <t>Cache cleared as expected</t>
+  </si>
+  <si>
+    <t>Validate MQS Event Hub ingestion to Bronze tables</t>
+  </si>
+  <si>
+    <t>Events landing in Bronze</t>
+  </si>
+  <si>
+    <t>Validate Silver tables population from Bronze</t>
+  </si>
+  <si>
+    <t>Silver data available</t>
+  </si>
+  <si>
+    <t>Validate Gold entities and views</t>
+  </si>
+  <si>
+    <t>Gold data accessible</t>
+  </si>
+  <si>
+    <t>Validate CoS ODS &amp; Engineering tables</t>
+  </si>
+  <si>
+    <t>Tables accessible and refreshed</t>
+  </si>
+  <si>
+    <t>Validate CoS Analyst views</t>
+  </si>
+  <si>
+    <t>Analyst views accessible</t>
+  </si>
+  <si>
+    <t>Validate CoS Pricing views</t>
+  </si>
+  <si>
+    <t>Pricing views accessible</t>
+  </si>
+  <si>
+    <t>Validate Vehicle &amp; Area LRT service deployment</t>
+  </si>
+  <si>
+    <t>Service up and accessible</t>
+  </si>
+  <si>
+    <t>Validate LRT data load using signed-off file</t>
+  </si>
+  <si>
+    <t>Data loaded successfully</t>
+  </si>
+  <si>
+    <t>Verify PROD Databricks PV group permissions</t>
+  </si>
+  <si>
+    <t>Access validated</t>
+  </si>
+  <si>
+    <t>Monitor PROD jobs/logs for errors post-release</t>
   </si>
 </sst>
 </file>
@@ -703,7 +781,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:P14"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1324,7 +1402,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1346,8 +1424,29 @@
       <c r="G17" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1369,8 +1468,29 @@
       <c r="G18" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>10</v>
+      </c>
+      <c r="L18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N18" t="s">
+        <v>105</v>
+      </c>
+      <c r="O18" t="s">
+        <v>106</v>
+      </c>
+      <c r="P18" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1392,8 +1512,29 @@
       <c r="G19" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>10</v>
+      </c>
+      <c r="L19" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19" t="s">
+        <v>107</v>
+      </c>
+      <c r="O19" t="s">
+        <v>108</v>
+      </c>
+      <c r="P19" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1415,8 +1556,29 @@
       <c r="G20" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <v>10</v>
+      </c>
+      <c r="L20" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" t="s">
+        <v>7</v>
+      </c>
+      <c r="N20" t="s">
+        <v>23</v>
+      </c>
+      <c r="O20" t="s">
+        <v>109</v>
+      </c>
+      <c r="P20" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1438,8 +1600,29 @@
       <c r="G21" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21">
+        <v>10</v>
+      </c>
+      <c r="L21" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" t="s">
+        <v>7</v>
+      </c>
+      <c r="N21" t="s">
+        <v>110</v>
+      </c>
+      <c r="O21" t="s">
+        <v>111</v>
+      </c>
+      <c r="P21" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5</v>
       </c>
@@ -1461,8 +1644,29 @@
       <c r="G22" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <v>10</v>
+      </c>
+      <c r="L22" t="s">
+        <v>7</v>
+      </c>
+      <c r="M22" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22" t="s">
+        <v>112</v>
+      </c>
+      <c r="O22" t="s">
+        <v>113</v>
+      </c>
+      <c r="P22" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>6</v>
       </c>
@@ -1484,8 +1688,29 @@
       <c r="G23" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J23">
+        <v>6</v>
+      </c>
+      <c r="K23">
+        <v>10</v>
+      </c>
+      <c r="L23" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23" t="s">
+        <v>7</v>
+      </c>
+      <c r="N23" t="s">
+        <v>114</v>
+      </c>
+      <c r="O23" t="s">
+        <v>115</v>
+      </c>
+      <c r="P23" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>7</v>
       </c>
@@ -1507,8 +1732,29 @@
       <c r="G24" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J24">
+        <v>7</v>
+      </c>
+      <c r="K24">
+        <v>10</v>
+      </c>
+      <c r="L24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M24" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24" t="s">
+        <v>116</v>
+      </c>
+      <c r="O24" t="s">
+        <v>117</v>
+      </c>
+      <c r="P24" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>8</v>
       </c>
@@ -1530,8 +1776,29 @@
       <c r="G25" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J25">
+        <v>8</v>
+      </c>
+      <c r="K25">
+        <v>10</v>
+      </c>
+      <c r="L25" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" t="s">
+        <v>7</v>
+      </c>
+      <c r="N25" t="s">
+        <v>118</v>
+      </c>
+      <c r="O25" t="s">
+        <v>119</v>
+      </c>
+      <c r="P25" s="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>9</v>
       </c>
@@ -1553,8 +1820,75 @@
       <c r="G26" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J26">
+        <v>9</v>
+      </c>
+      <c r="K26">
+        <v>10</v>
+      </c>
+      <c r="L26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M26" t="s">
+        <v>7</v>
+      </c>
+      <c r="N26" t="s">
+        <v>120</v>
+      </c>
+      <c r="O26" t="s">
+        <v>121</v>
+      </c>
+      <c r="P26" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J27">
+        <v>10</v>
+      </c>
+      <c r="K27">
+        <v>10</v>
+      </c>
+      <c r="L27" t="s">
+        <v>7</v>
+      </c>
+      <c r="M27" t="s">
+        <v>7</v>
+      </c>
+      <c r="N27" t="s">
+        <v>122</v>
+      </c>
+      <c r="O27" t="s">
+        <v>123</v>
+      </c>
+      <c r="P27" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J28">
+        <v>11</v>
+      </c>
+      <c r="K28">
+        <v>10</v>
+      </c>
+      <c r="L28" t="s">
+        <v>7</v>
+      </c>
+      <c r="M28" t="s">
+        <v>7</v>
+      </c>
+      <c r="N28" t="s">
+        <v>124</v>
+      </c>
+      <c r="O28" t="s">
+        <v>125</v>
+      </c>
+      <c r="P28" s="1">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -1576,8 +1910,29 @@
       <c r="G29" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J29">
+        <v>12</v>
+      </c>
+      <c r="K29">
+        <v>10</v>
+      </c>
+      <c r="L29" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" t="s">
+        <v>7</v>
+      </c>
+      <c r="N29" t="s">
+        <v>126</v>
+      </c>
+      <c r="O29" t="s">
+        <v>127</v>
+      </c>
+      <c r="P29" s="1">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1599,8 +1954,29 @@
       <c r="G30" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J30">
+        <v>13</v>
+      </c>
+      <c r="K30">
+        <v>5</v>
+      </c>
+      <c r="L30" t="s">
+        <v>7</v>
+      </c>
+      <c r="M30" t="s">
+        <v>7</v>
+      </c>
+      <c r="N30" t="s">
+        <v>128</v>
+      </c>
+      <c r="O30" t="s">
+        <v>129</v>
+      </c>
+      <c r="P30" s="1">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1622,8 +1998,29 @@
       <c r="G31" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J31">
+        <v>14</v>
+      </c>
+      <c r="K31">
+        <v>10</v>
+      </c>
+      <c r="L31" t="s">
+        <v>7</v>
+      </c>
+      <c r="M31" t="s">
+        <v>7</v>
+      </c>
+      <c r="N31" t="s">
+        <v>130</v>
+      </c>
+      <c r="O31" t="s">
+        <v>99</v>
+      </c>
+      <c r="P31" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
